--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\研修関係\6月研修\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631A36E0-D4B3-434E-8E3A-6EAAF7108DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F42F20-4892-4C32-AA9F-021F2C21AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -217,16 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧表示検索機能</t>
-    <rPh sb="0" eb="4">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ケンサクキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天気の表示機能</t>
     <rPh sb="0" eb="2">
       <t>テンキ</t>
@@ -244,20 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集機能</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンシュウキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索機能</t>
-    <rPh sb="0" eb="4">
-      <t>ケンサクキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天気表示機能</t>
     <rPh sb="0" eb="2">
       <t>テンキ</t>
@@ -278,13 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDとパスワードの登録</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>条件に合った服装を表示</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -301,20 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネートの新規登録</t>
-    <rPh sb="8" eb="12">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネートの編集機能</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その日の天気の表示</t>
     <rPh sb="2" eb="3">
       <t>ヒ</t>
@@ -328,22 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧の表示と検索機能</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム用</t>
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
@@ -358,13 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムの新規登録</t>
-    <rPh sb="5" eb="9">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテムの詳細表示・削除・編集</t>
     <rPh sb="5" eb="9">
       <t>ショウサイヒョウジ</t>
@@ -394,13 +326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムの編集機能</t>
-    <rPh sb="5" eb="9">
-      <t>ヘンシュウキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー入力欄</t>
     <rPh sb="4" eb="7">
       <t>ニュウリョクラン</t>
@@ -620,31 +545,285 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネート内のアイテム画像押下時アイテム詳細へ飛ぶ</t>
-    <rPh sb="7" eb="8">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーディネート詳細へのURL</t>
     <rPh sb="7" eb="9">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索一覧のコーディネート画像押下時コーディネート詳細へ飛ぶ</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクイチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート内のMore infoボタン押下時アイテム詳細へ飛ぶ</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンによる入力受付</t>
+    <rPh sb="8" eb="12">
+      <t>ニュウリョクウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服の種類の選択</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDとパスワードの登録ボタン</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートの新規登録ボタン</t>
+    <rPh sb="8" eb="12">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートの編集ボタン</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの新規登録ボタン</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの編集ボタン</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>ガゾウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印ボタンによる画像切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガゾウキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印ボタン押下時他候補に画像切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ガゾウキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの新規登録情報の入力受付</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ニュウリョクウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの更新情報の入力受付</t>
+    <rPh sb="5" eb="9">
+      <t>コウシンジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ニュウリョクウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム編集機能</t>
+    <rPh sb="4" eb="8">
+      <t>ヘンシュウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート新規登録</t>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート編集機能</t>
+    <rPh sb="7" eb="11">
+      <t>ヘンシュウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索機能</t>
+    <rPh sb="7" eb="11">
+      <t>ケンサクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム新規登録</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム登録機能</t>
+    <rPh sb="4" eb="8">
+      <t>トウロクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索機能</t>
+    <rPh sb="4" eb="8">
+      <t>ケンサクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム一覧の表示と検索機能</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム一覧表示検索機能</t>
+    <rPh sb="4" eb="8">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ケンサクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート一覧表示検索機能</t>
+    <rPh sb="7" eb="11">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ケンサクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート一覧の表示と検索機能</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1104,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1213,7 +1392,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1235,7 +1414,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -1253,7 +1432,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1263,17 +1442,17 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1283,17 +1462,17 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1303,15 +1482,15 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1321,15 +1500,15 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1339,17 +1518,17 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1359,17 +1538,17 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1382,14 +1561,14 @@
         <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1402,14 +1581,14 @@
         <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1422,14 +1601,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1442,14 +1621,14 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1459,17 +1638,17 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1479,17 +1658,17 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1499,17 +1678,17 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1519,17 +1698,17 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -1539,17 +1718,17 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1559,17 +1738,17 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1579,17 +1758,17 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1599,36 +1778,38 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>22</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -1636,11 +1817,19 @@
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
@@ -1648,11 +1837,19 @@
         <v>24</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -1660,11 +1857,19 @@
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -1672,11 +1877,19 @@
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
@@ -1684,11 +1897,17 @@
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -1714,6 +1933,54 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F42F20-4892-4C32-AA9F-021F2C21AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BCA00-654D-4A7F-A058-37A271CB90E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -344,10 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録へのURL</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
@@ -528,16 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>詳細機能</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム詳細へのURL</t>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
@@ -552,25 +538,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索一覧のコーディネート画像押下時コーディネート詳細へ飛ぶ</t>
-    <rPh sb="0" eb="4">
-      <t>ケンサクイチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーディネート内のMore infoボタン押下時アイテム詳細へ飛ぶ</t>
     <rPh sb="7" eb="8">
       <t>ナイ</t>
@@ -824,6 +791,224 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索一覧の画像押下時アイテム詳細へ飛ぶ</t>
+    <rPh sb="4" eb="8">
+      <t>ケンサクイチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム詳細機能</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート詳細機能</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索一覧の画像押下時コーディネート詳細へ飛ぶ</t>
+    <rPh sb="7" eb="11">
+      <t>ケンサクイチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページへのURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ押下時ホームへ飛ぶ</t>
+    <rPh sb="2" eb="5">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録機能</t>
+    <rPh sb="7" eb="11">
+      <t>トウロクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンによる入力受付</t>
+  </si>
+  <si>
+    <t>季節の選択</t>
+    <rPh sb="0" eb="2">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンによる入力受付</t>
+    <rPh sb="9" eb="13">
+      <t>ニュウリョクウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネス・プライベート・両方の選択</t>
+    <rPh sb="12" eb="14">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートの画像添付</t>
+    <rPh sb="8" eb="12">
+      <t>ガゾウテンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添付される画像の入力受付</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ニュウリョクウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの画像添付</t>
+    <rPh sb="5" eb="9">
+      <t>ガゾウテンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム枠の追加</t>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索が追加される</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート編集機能</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート編集</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの新規登録情報の入力受付
+テキストボックスによる検索欄の追加
+画像押下時アイテムの決定</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ニュウリョクウケツケ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="35" eb="40">
+      <t>ガゾウオウカジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1283,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I40"/>
+  <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1392,7 +1577,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1442,7 +1627,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
@@ -1452,7 +1637,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1462,7 +1647,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -1472,7 +1657,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1482,15 +1667,15 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1518,7 +1703,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -1528,7 +1713,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1538,7 +1723,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
@@ -1548,7 +1733,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1601,14 +1786,14 @@
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1621,14 +1806,14 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1638,17 +1823,17 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1658,17 +1843,17 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1678,17 +1863,17 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1698,17 +1883,17 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -1718,17 +1903,17 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1738,17 +1923,17 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1758,17 +1943,17 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1778,17 +1963,17 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1798,17 +1983,17 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -1818,17 +2003,17 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="3" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -1838,17 +2023,17 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -1858,17 +2043,17 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -1878,17 +2063,17 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -1898,15 +2083,17 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -1915,23 +2102,37 @@
         <v>28</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
@@ -1939,11 +2140,19 @@
         <v>30</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
@@ -1951,11 +2160,19 @@
         <v>31</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -1963,11 +2180,19 @@
         <v>32</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
@@ -1975,12 +2200,128 @@
         <v>33</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="2">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="2">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="2">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BCA00-654D-4A7F-A058-37A271CB90E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD14ED-F3A7-49F4-BBAE-8233FCCDAE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -163,13 +164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー用</t>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
@@ -227,13 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネート用</t>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天気表示機能</t>
     <rPh sb="0" eb="2">
       <t>テンキ</t>
@@ -283,13 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム用</t>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテムの登録機能</t>
     <rPh sb="5" eb="9">
       <t>トウロクキノウ</t>
@@ -326,13 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー入力欄</t>
-    <rPh sb="4" eb="7">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID,パスワードの入力受付</t>
     <rPh sb="9" eb="13">
       <t>ニュウリョクウケツケ</t>
@@ -557,10 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プルダウンによる入力受付</t>
     <rPh sb="8" eb="12">
       <t>ニュウリョクウケツケ</t>
@@ -824,16 +793,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネート詳細機能</t>
-    <rPh sb="7" eb="9">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーディネート検索一覧の画像押下時コーディネート詳細へ飛ぶ</t>
     <rPh sb="7" eb="11">
       <t>ケンサクイチラン</t>
@@ -871,13 +830,6 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート登録機能</t>
-    <rPh sb="7" eb="11">
-      <t>トウロクキノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1009,6 +961,41 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索機能</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力受付</t>
+  </si>
+  <si>
+    <t>入力受付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム編集</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1467,11 +1454,892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742B98-A26C-4C3E-8E3D-D6AE9939A823}">
+  <dimension ref="B2:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>44719</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="2">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="2">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="2">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="2">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="2">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B26" s="2">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="2">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="2">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="2">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="2">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="2">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="2">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="2">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="2">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="2">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B48" s="2">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D36" sqref="D12:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1564,21 +2432,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -1586,21 +2444,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -1608,17 +2456,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -1626,19 +2468,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -1646,19 +2480,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -1666,17 +2492,11 @@
         <v>6</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -1684,17 +2504,11 @@
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -1702,19 +2516,11 @@
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -1722,59 +2528,35 @@
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -1782,19 +2564,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -1802,19 +2576,11 @@
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -1822,19 +2588,11 @@
         <v>14</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -1842,19 +2600,11 @@
         <v>15</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -1862,19 +2612,11 @@
         <v>16</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -1882,19 +2624,11 @@
         <v>17</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
@@ -1902,19 +2636,11 @@
         <v>18</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
@@ -1922,19 +2648,11 @@
         <v>19</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
@@ -1942,59 +2660,35 @@
         <v>20</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>21</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>22</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
@@ -2002,19 +2696,11 @@
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
@@ -2022,19 +2708,11 @@
         <v>24</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
@@ -2042,19 +2720,11 @@
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
@@ -2062,19 +2732,11 @@
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
@@ -2082,19 +2744,11 @@
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -2102,37 +2756,23 @@
         <v>28</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
@@ -2140,19 +2780,11 @@
         <v>30</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
@@ -2160,19 +2792,11 @@
         <v>31</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
@@ -2180,19 +2804,11 @@
         <v>32</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
@@ -2200,19 +2816,11 @@
         <v>33</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
@@ -2220,39 +2828,23 @@
         <v>34</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <v>35</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="H42" s="3"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
@@ -2260,19 +2852,11 @@
         <v>36</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">

--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD14ED-F3A7-49F4-BBAE-8233FCCDAE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD7ACD5-631D-4A89-A64B-57D5838E7DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="機能一覧 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="機能一覧" sheetId="1" r:id="rId2"/>
+    <sheet name="機能一覧 " sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -270,13 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムの登録機能</t>
-    <rPh sb="5" eb="9">
-      <t>トウロクキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテムの詳細表示・削除・編集</t>
     <rPh sb="5" eb="9">
       <t>ショウサイヒョウジ</t>
@@ -691,13 +683,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム新規登録</t>
-    <rPh sb="4" eb="8">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム登録機能</t>
     <rPh sb="4" eb="8">
       <t>トウロクキノウ</t>
@@ -779,16 +764,6 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム詳細機能</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -998,6 +973,148 @@
       <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST-002</t>
+  </si>
+  <si>
+    <t>HM-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-002</t>
+  </si>
+  <si>
+    <t>HM-003</t>
+  </si>
+  <si>
+    <t>HM-004</t>
+  </si>
+  <si>
+    <t>HM-005</t>
+  </si>
+  <si>
+    <t>LI-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LI-002</t>
+  </si>
+  <si>
+    <t>LI-003</t>
+  </si>
+  <si>
+    <t>TN-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HT-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HT-002</t>
+  </si>
+  <si>
+    <t>HT-003</t>
+  </si>
+  <si>
+    <t>CK-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CK-002</t>
+  </si>
+  <si>
+    <t>CK-003</t>
+  </si>
+  <si>
+    <t>CK-004</t>
+  </si>
+  <si>
+    <t>CK-005</t>
+  </si>
+  <si>
+    <t>CH-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CH-002</t>
+  </si>
+  <si>
+    <t>CT-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT-002</t>
+  </si>
+  <si>
+    <t>CT-003</t>
+  </si>
+  <si>
+    <t>CT-004</t>
+  </si>
+  <si>
+    <t>CT-005</t>
+  </si>
+  <si>
+    <t>CT-006</t>
+  </si>
+  <si>
+    <t>IK-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索機能</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IK-002</t>
+  </si>
+  <si>
+    <t>IH-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IH-002</t>
+  </si>
+  <si>
+    <t>アイテム登録機能</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの新規登録</t>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT-002</t>
+  </si>
+  <si>
+    <t>IT-003</t>
+  </si>
+  <si>
+    <t>IT-004</t>
   </si>
 </sst>
 </file>
@@ -1457,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742B98-A26C-4C3E-8E3D-D6AE9939A823}">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1555,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -1564,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1577,14 +1694,16 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -1597,13 +1716,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
@@ -1619,14 +1738,16 @@
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1639,14 +1760,16 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1656,17 +1779,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1676,17 +1801,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1696,17 +1823,19 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1716,17 +1845,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="H16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1736,17 +1867,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1756,17 +1889,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1782,7 +1917,9 @@
       <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1800,7 +1937,9 @@
       <c r="F20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1815,14 +1954,16 @@
         <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1835,14 +1976,16 @@
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1852,15 +1995,17 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -1870,17 +2015,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -1890,17 +2037,19 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -1910,17 +2059,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="H26" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1930,17 +2081,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="H27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1950,17 +2103,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="H28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1970,17 +2125,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="H29" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -1990,17 +2147,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2010,17 +2169,19 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="H31" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -2030,17 +2191,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="H32" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2050,17 +2213,19 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H33" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -2070,17 +2235,19 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H34" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -2090,17 +2257,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="H35" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2110,15 +2279,17 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H36" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2128,17 +2299,19 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H37" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2148,17 +2321,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="H38" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2168,17 +2343,19 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="H39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2188,17 +2365,19 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="H40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -2208,17 +2387,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="H41" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -2228,17 +2409,19 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -2248,17 +2431,19 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="H43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -2321,591 +2506,6 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D36" sqref="D12:H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="9">
-        <v>44719</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="2">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="2">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="2">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="2">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="2">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="2">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="2">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="2">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="2">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="2">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="2">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="2">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="2">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="2">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="2">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="2">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="2">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="2">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="2">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="2">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="2">
-        <v>31</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="2">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="2">
-        <v>33</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="2">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="2">
-        <v>35</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="2">
-        <v>36</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="2">
-        <v>37</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="2">
-        <v>38</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="2">
-        <v>39</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="2">
-        <v>40</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD7ACD5-631D-4A89-A64B-57D5838E7DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E25C13C-280F-4151-B55D-1BEC77D09B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧 " sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="146">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1115,6 +1115,17 @@
   </si>
   <si>
     <t>IT-004</t>
+  </si>
+  <si>
+    <t>IK-003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ、ブランドの選択</t>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1574,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742B98-A26C-4C3E-8E3D-D6AE9939A823}">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2452,11 +2463,21 @@
         <v>37</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">

--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E25C13C-280F-4151-B55D-1BEC77D09B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915C62A1-901B-461B-A5DA-A6B077DB0765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧 " sheetId="3" r:id="rId1"/>
@@ -398,13 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニューの表示</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索一覧表示へ飛ぶ</t>
     <rPh sb="0" eb="4">
       <t>ケンサクイチラン</t>
@@ -1124,6 +1117,16 @@
     <t>カテゴリ、ブランドの選択</t>
     <rPh sb="10" eb="12">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューの表示、収納</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1585,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742B98-A26C-4C3E-8E3D-D6AE9939A823}">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1683,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -1692,7 +1695,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1705,13 +1708,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>34</v>
@@ -1727,13 +1730,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
@@ -1749,13 +1752,13 @@
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>34</v>
@@ -1771,13 +1774,13 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>36</v>
@@ -1796,10 +1799,10 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>41</v>
@@ -1821,7 +1824,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>36</v>
@@ -1843,10 +1846,10 @@
         <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1865,10 +1868,10 @@
         <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1887,10 +1890,10 @@
         <v>44</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1900,19 +1903,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1929,7 +1932,7 @@
         <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>30</v>
@@ -1949,7 +1952,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>29</v>
@@ -1965,16 +1968,16 @@
         <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1993,7 +1996,7 @@
         <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>38</v>
@@ -2006,17 +2009,17 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2026,19 +2029,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -2048,19 +2051,19 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -2070,19 +2073,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2092,19 +2095,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -2114,19 +2117,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2136,19 +2139,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2158,19 +2161,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2180,19 +2183,19 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -2202,19 +2205,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2224,19 +2227,19 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -2246,19 +2249,19 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -2268,19 +2271,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2290,17 +2293,17 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2310,19 +2313,19 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2332,19 +2335,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2354,19 +2357,19 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2376,19 +2379,19 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -2398,19 +2401,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -2420,19 +2423,19 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -2442,19 +2445,19 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -2464,19 +2467,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="I44" s="2"/>
     </row>

--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-4\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915C62A1-901B-461B-A5DA-A6B077DB0765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E3944-51B0-4F01-92A6-0EA63AFAA7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧 " sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1128,6 +1128,10 @@
     <rPh sb="8" eb="10">
       <t>シュウノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1588,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742B98-A26C-4C3E-8E3D-D6AE9939A823}">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,7 +1627,9 @@
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1687,9 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1711,9 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1725,7 +1735,9 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1759,9 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1769,7 +1783,9 @@
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1791,7 +1807,9 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1813,7 +1831,9 @@
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1835,7 +1855,9 @@
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1857,7 +1879,9 @@
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1879,7 +1903,9 @@
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1901,7 +1927,9 @@
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
@@ -1923,7 +1951,9 @@
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1943,7 +1973,9 @@
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1963,7 +1995,9 @@
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1985,7 +2019,9 @@
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +2043,9 @@
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>74</v>
       </c>
@@ -2027,7 +2065,9 @@
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>74</v>
       </c>
@@ -2049,7 +2089,9 @@
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2071,7 +2113,9 @@
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
@@ -2093,7 +2137,9 @@
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>100</v>
       </c>
@@ -2115,7 +2161,9 @@
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>73</v>
       </c>
@@ -2137,7 +2185,9 @@
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>97</v>
       </c>
@@ -2159,7 +2209,9 @@
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>72</v>
       </c>
@@ -2181,7 +2233,9 @@
       <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>72</v>
       </c>
@@ -2203,7 +2257,9 @@
       <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>72</v>
       </c>
@@ -2225,7 +2281,9 @@
       <c r="B33" s="2">
         <v>26</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>72</v>
       </c>
@@ -2247,7 +2305,9 @@
       <c r="B34" s="2">
         <v>27</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2269,7 +2329,9 @@
       <c r="B35" s="2">
         <v>28</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
@@ -2291,7 +2353,9 @@
       <c r="B36" s="2">
         <v>29</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>76</v>
       </c>
@@ -2311,7 +2375,9 @@
       <c r="B37" s="2">
         <v>30</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D37" s="2" t="s">
         <v>133</v>
       </c>
@@ -2333,7 +2399,9 @@
       <c r="B38" s="2">
         <v>31</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D38" s="2" t="s">
         <v>71</v>
       </c>
@@ -2355,7 +2423,9 @@
       <c r="B39" s="2">
         <v>32</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>71</v>
       </c>
@@ -2377,7 +2447,9 @@
       <c r="B40" s="2">
         <v>33</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D40" s="2" t="s">
         <v>137</v>
       </c>
@@ -2399,7 +2471,9 @@
       <c r="B41" s="2">
         <v>34</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>75</v>
       </c>
@@ -2421,7 +2495,9 @@
       <c r="B42" s="2">
         <v>35</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
       </c>
@@ -2443,7 +2519,9 @@
       <c r="B43" s="2">
         <v>36</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>75</v>
       </c>
@@ -2465,7 +2543,9 @@
       <c r="B44" s="2">
         <v>37</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>76</v>
       </c>

--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E3944-51B0-4F01-92A6-0EA63AFAA7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28B7FB9-0499-4F80-98BB-23345A1970A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧 " sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="148">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -367,19 +367,6 @@
     <t>画面遷移</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索一覧表示へのURL</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1132,6 +1119,23 @@
   </si>
   <si>
     <t>ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート一覧へのURL</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム一覧表示へのURL</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1592,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742B98-A26C-4C3E-8E3D-D6AE9939A823}">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1628,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -1688,13 +1692,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -1703,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1712,19 +1716,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>34</v>
@@ -1736,19 +1740,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
@@ -1760,19 +1764,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>34</v>
@@ -1784,19 +1788,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>36</v>
@@ -1808,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -1817,10 +1821,10 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>41</v>
@@ -1832,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>40</v>
@@ -1841,10 +1845,10 @@
         <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>36</v>
@@ -1856,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>40</v>
@@ -1865,13 +1869,13 @@
         <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1880,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>40</v>
@@ -1889,13 +1893,13 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1904,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>40</v>
@@ -1913,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1928,22 +1932,22 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1952,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
@@ -1962,7 +1966,7 @@
         <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>30</v>
@@ -1974,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
@@ -1984,7 +1988,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>29</v>
@@ -1996,22 +2000,22 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -2020,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
@@ -2032,7 +2036,7 @@
         <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>38</v>
@@ -2044,20 +2048,20 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2066,22 +2070,22 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -2090,22 +2094,22 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -2114,22 +2118,22 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2138,22 +2142,22 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -2162,22 +2166,22 @@
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2186,22 +2190,22 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2210,22 +2214,22 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2234,22 +2238,22 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -2258,22 +2262,22 @@
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2282,22 +2286,22 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -2306,22 +2310,22 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -2330,22 +2334,22 @@
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2354,20 +2358,20 @@
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2376,22 +2380,22 @@
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2400,22 +2404,22 @@
         <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2424,22 +2428,22 @@
         <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2448,22 +2452,22 @@
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -2472,22 +2476,22 @@
         <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -2496,22 +2500,22 @@
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -2520,22 +2524,22 @@
         <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -2544,22 +2548,22 @@
         <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="I44" s="2"/>
     </row>

--- a/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
+++ b/doc/04_機能一覧_ドキドキわくわく（仮）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-4\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28B7FB9-0499-4F80-98BB-23345A1970A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06C24A-03C8-4978-805D-70B4C57F9AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2235" windowWidth="20490" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧 " sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="194">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -256,48 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その日の天気の表示</t>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムの詳細表示・削除・編集</t>
-    <rPh sb="5" eb="9">
-      <t>ショウサイヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネートの詳細表示・削除・編集</t>
-    <rPh sb="8" eb="10">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID,パスワードの入力受付</t>
     <rPh sb="9" eb="13">
       <t>ニュウリョクウケツケ</t>
@@ -425,26 +383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索ボックスの表示</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスによる検索の表示</t>
-    <rPh sb="11" eb="13">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力受付</t>
     <rPh sb="0" eb="4">
       <t>ニュウリョクウケツケ</t>
@@ -459,16 +397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索内容による一覧のソート</t>
-    <rPh sb="0" eb="4">
-      <t>ケンサクナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム詳細へのURL</t>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
@@ -483,25 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネート内のMore infoボタン押下時アイテム詳細へ飛ぶ</t>
-    <rPh sb="7" eb="8">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プルダウンによる入力受付</t>
     <rPh sb="8" eb="12">
       <t>ニュウリョクウケツケ</t>
@@ -543,13 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネートの編集ボタン</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテムの新規登録ボタン</t>
     <rPh sb="5" eb="9">
       <t>シンキトウロク</t>
@@ -557,13 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムの編集ボタン</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像切り替え</t>
     <rPh sb="0" eb="3">
       <t>ガゾウキ</t>
@@ -649,13 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネート編集機能</t>
-    <rPh sb="7" eb="11">
-      <t>ヘンシュウキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーディネート検索機能</t>
     <rPh sb="7" eb="11">
       <t>ケンサクキノウ</t>
@@ -677,22 +565,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム一覧の表示と検索機能</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム一覧表示検索機能</t>
     <rPh sb="4" eb="8">
       <t>イチランヒョウジ</t>
@@ -703,70 +575,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネート一覧表示検索機能</t>
-    <rPh sb="7" eb="11">
-      <t>イチランヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ケンサクキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート一覧の表示と検索機能</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム検索一覧の画像押下時アイテム詳細へ飛ぶ</t>
-    <rPh sb="4" eb="8">
-      <t>ケンサクイチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート検索一覧の画像押下時コーディネート詳細へ飛ぶ</t>
-    <rPh sb="7" eb="11">
-      <t>ケンサクイチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロゴ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -869,23 +677,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート編集機能</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート編集</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -948,13 +739,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム編集</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ST-002</t>
   </si>
   <si>
@@ -1014,13 +798,6 @@
     <t>CK-005</t>
   </si>
   <si>
-    <t>CH-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CH-002</t>
-  </si>
-  <si>
     <t>CT-001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1041,16 +818,6 @@
   </si>
   <si>
     <t>IK-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム検索機能</t>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1097,17 +864,6 @@
     <t>IT-004</t>
   </si>
   <si>
-    <t>IK-003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリ、ブランドの選択</t>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューの表示、収納</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
@@ -1137,6 +893,571 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その日の天気、最高最低気温、降水確率の表示</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>サイコウサイテイキオン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>コウスイカクリツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート一覧表示機能</t>
+    <rPh sb="7" eb="11">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート一覧の表示機能</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリー検索用のテキストボックス</t>
+    <rPh sb="3" eb="6">
+      <t>ケンサクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索用の着用目的の選択</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサクヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>チャクヨウモクテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索用の季節の選択</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサクヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスによる入力受付</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索結果一覧の画像押下時コーディネート詳細へ飛ぶ</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索結果ページへのURL</t>
+    <rPh sb="7" eb="11">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件が一致したコーディネートが表示されるコーディネート検索結果ページに飛ぶ</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉じボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索欄の非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索欄の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索欄の非表示の×ボタン</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサクラン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索結果機能</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件の表示</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件で絞り込まれた画像の表示</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム一覧表示機能</t>
+    <rPh sb="4" eb="8">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム一覧の表示</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーの検索条件が選択できる</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンメニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンメニューによる入力受付</t>
+    <rPh sb="12" eb="16">
+      <t>ニュウリョクウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランドの検索条件が選択できる</t>
+    <rPh sb="5" eb="9">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索結果ページへのＵＲＬ</t>
+    <rPh sb="4" eb="8">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件に一致したアイテムが表示されるアイテム検索結果ページに飛ぶ</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索結果機能</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート詳細表示機能</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートにアイテムを追加</t>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前画面で選択されたコーディネート画像の表示</t>
+    <rPh sb="0" eb="3">
+      <t>マエガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像表示</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの詳細を表示</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの画像を表示</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートからアイテムを削除</t>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートを削除</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート削除</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートアイテム削除</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートアイテム追加</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの情報を更新するボタン</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムアップデートボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム削除ボタン</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択しているアイテムを削除する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストエリアによる入力受付</t>
+    <rPh sb="10" eb="14">
+      <t>ニュウリョクウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考入力欄</t>
+    <rPh sb="0" eb="5">
+      <t>ビコウニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CK-006</t>
+  </si>
+  <si>
+    <t>CK-007</t>
+  </si>
+  <si>
+    <t>CK-008</t>
+  </si>
+  <si>
+    <t>CKK-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CKK-02</t>
+  </si>
+  <si>
+    <t>コーディネート内のアイテム画像押下時アイテム詳細へ飛ぶ</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS-002</t>
+  </si>
+  <si>
+    <t>CS-003</t>
+  </si>
+  <si>
+    <t>CS-004</t>
+  </si>
+  <si>
+    <t>CS-005</t>
+  </si>
+  <si>
+    <t>CS-006</t>
+  </si>
+  <si>
+    <t>CS-007</t>
+  </si>
+  <si>
+    <t>IK-003</t>
+  </si>
+  <si>
+    <t>IK-004</t>
+  </si>
+  <si>
+    <t>IK-005</t>
+  </si>
+  <si>
+    <t>IK-006</t>
+  </si>
+  <si>
+    <t>IKK-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IKK-002</t>
+  </si>
+  <si>
+    <t>IH-003</t>
+  </si>
+  <si>
+    <t>IT-005</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,6 +1575,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1594,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91742B98-A26C-4C3E-8E3D-D6AE9939A823}">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1632,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -1692,13 +2016,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -1707,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1716,22 +2040,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -1740,19 +2064,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
@@ -1764,22 +2088,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1788,22 +2112,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1812,22 +2136,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -1836,22 +2160,22 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1860,22 +2184,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -1884,22 +2208,22 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -1908,22 +2232,22 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1932,31 +2256,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
@@ -1966,10 +2290,10 @@
         <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1978,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
@@ -1988,7 +2312,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>29</v>
@@ -2000,22 +2324,22 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -2024,22 +2348,22 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -2048,20 +2372,20 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2070,22 +2394,22 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -2094,94 +2418,94 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2190,46 +2514,46 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>95</v>
+        <v>174</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2238,22 +2562,20 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>88</v>
+        <v>176</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -2262,46 +2584,44 @@
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>92</v>
+        <v>177</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>90</v>
+        <v>179</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -2310,46 +2630,44 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>98</v>
+        <v>181</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2358,44 +2676,46 @@
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>76</v>
+        <v>182</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>80</v>
+        <v>183</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2404,22 +2724,22 @@
         <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>64</v>
+        <v>184</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2428,22 +2748,22 @@
         <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>69</v>
+        <v>185</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2452,22 +2772,22 @@
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -2476,22 +2796,22 @@
         <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -2500,22 +2820,22 @@
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -2524,22 +2844,22 @@
         <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>68</v>
+        <v>108</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -2548,72 +2868,488 @@
         <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <v>38</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <v>39</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <v>40</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <v>41</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="2">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B50" s="2">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B51" s="2">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
+        <v>45</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="2">
+        <v>46</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="2">
+        <v>47</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="2">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="2">
+        <v>49</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="2">
+        <v>50</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="2">
+        <v>52</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="2">
+        <v>53</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="2">
+        <v>54</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="2">
+        <v>32</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="2">
+        <v>33</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="2">
+        <v>34</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="2">
+        <v>35</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
